--- a/data/excel/Register_Client.xlsx
+++ b/data/excel/Register_Client.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kumar.gaurav\git\V12StagingB2C\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0FE539-DCA2-45F7-B9CF-5024A0742BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701BC313-20AC-4EF1-AB11-1E628353D207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="20490" windowHeight="8850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="155">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -213,235 +215,295 @@
     <t>14-SEP-2026</t>
   </si>
   <si>
-    <t>Ankur@12345</t>
+    <t>14-AUG-2024</t>
+  </si>
+  <si>
+    <t>TC Register Client 2</t>
+  </si>
+  <si>
+    <t>TC Register Client 3</t>
+  </si>
+  <si>
+    <t>TC Register Client 4</t>
+  </si>
+  <si>
+    <t>TC Register Client 5</t>
+  </si>
+  <si>
+    <t>Verify Register Client with Traveller Type VIP</t>
+  </si>
+  <si>
+    <t>Verify Register Client with Traveller Type CIP</t>
+  </si>
+  <si>
+    <t>CIP</t>
+  </si>
+  <si>
+    <t>Verify Register Client with Preferred Name</t>
+  </si>
+  <si>
+    <t>Verify Register Client with Username</t>
+  </si>
+  <si>
+    <t>Verify Register Client with Businnesss Address same as Home Address</t>
+  </si>
+  <si>
+    <t>TC Register Client 6</t>
+  </si>
+  <si>
+    <t>Verify Register Client with Duplicate Entry</t>
+  </si>
+  <si>
+    <t>14-SEP-1998</t>
+  </si>
+  <si>
+    <t>14-SEP-1999</t>
+  </si>
+  <si>
+    <t>14-SEP-2000</t>
+  </si>
+  <si>
+    <t>14-SEP-2001</t>
+  </si>
+  <si>
+    <t>14-NOV-2027</t>
+  </si>
+  <si>
+    <t>14-NOV-2028</t>
+  </si>
+  <si>
+    <t>14-NOV-2025</t>
+  </si>
+  <si>
+    <t>14-NOV-2024</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>eqweqw124</t>
+  </si>
+  <si>
+    <t>eqweqw125</t>
+  </si>
+  <si>
+    <t>eqweqw126</t>
+  </si>
+  <si>
+    <t>eqweqw127</t>
+  </si>
+  <si>
+    <t>15-AUG-2024</t>
+  </si>
+  <si>
+    <t>16-AUG-2024</t>
+  </si>
+  <si>
+    <t>17-AUG-2024</t>
+  </si>
+  <si>
+    <t>18-AUG-2024</t>
+  </si>
+  <si>
+    <t>15-SEP-2026</t>
+  </si>
+  <si>
+    <t>16-SEP-2026</t>
+  </si>
+  <si>
+    <t>17-SEP-2026</t>
+  </si>
+  <si>
+    <t>18-SEP-2026</t>
+  </si>
+  <si>
+    <t>Akasha</t>
+  </si>
+  <si>
+    <t>Akasha123</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Akasha001</t>
+  </si>
+  <si>
+    <t>Akasha001@quadlabs.com</t>
+  </si>
+  <si>
+    <t>TC Register Client 7</t>
+  </si>
+  <si>
+    <t>Verify Register Client with Existing Traveller</t>
+  </si>
+  <si>
+    <t>Bipul</t>
+  </si>
+  <si>
+    <t>Binod</t>
+  </si>
+  <si>
+    <t>Bipasa</t>
+  </si>
+  <si>
+    <t>Bigul</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Bipina</t>
+  </si>
+  <si>
+    <t>Bipul123</t>
+  </si>
+  <si>
+    <t>Bipina123</t>
+  </si>
+  <si>
+    <t>Binod1234</t>
+  </si>
+  <si>
+    <t>Bipasa123</t>
+  </si>
+  <si>
+    <t>Bigul234</t>
+  </si>
+  <si>
+    <t>Bipul121</t>
+  </si>
+  <si>
+    <t>Bipina121</t>
+  </si>
+  <si>
+    <t>Binod123</t>
+  </si>
+  <si>
+    <t>Bipasa122</t>
+  </si>
+  <si>
+    <t>Bigul23</t>
+  </si>
+  <si>
+    <t>Bipul121@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Bipina121@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Binod123@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Bipasa122@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Bigul23@quadlabs.com</t>
+  </si>
+  <si>
+    <t>TC Register Client 8</t>
+  </si>
+  <si>
+    <t>TC Register Client 9</t>
+  </si>
+  <si>
+    <t>TC Register Client 10</t>
+  </si>
+  <si>
+    <t>Verify Register Client without providing Preferred Name</t>
+  </si>
+  <si>
+    <t>Binoda</t>
+  </si>
+  <si>
+    <t>TC Register Client 11</t>
+  </si>
+  <si>
+    <t>Verify Register Client without providing Date Of Birth</t>
+  </si>
+  <si>
+    <t>Binova</t>
+  </si>
+  <si>
+    <t>Binova123</t>
+  </si>
+  <si>
+    <t>Verify Register Client without providing Username</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Verify Register Client without providing EmaiId</t>
+  </si>
+  <si>
+    <t>Piyush_ql</t>
+  </si>
+  <si>
+    <t>Bipula</t>
+  </si>
+  <si>
+    <t>Bipun</t>
+  </si>
+  <si>
+    <t>Bipasu</t>
+  </si>
+  <si>
+    <t>Bipul1234</t>
+  </si>
+  <si>
+    <t>Bipina1234</t>
+  </si>
+  <si>
+    <t>Binod12345</t>
+  </si>
+  <si>
+    <t>Bipasa1234</t>
+  </si>
+  <si>
+    <t>Bipul1212</t>
+  </si>
+  <si>
+    <t>Bipina1212</t>
+  </si>
+  <si>
+    <t>Binod1232</t>
+  </si>
+  <si>
+    <t>Bipasa1223</t>
+  </si>
+  <si>
+    <t>Bipul1212@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Bipina1212@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Binod1231@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Bipasa1212@quadlabs.com</t>
+  </si>
+  <si>
+    <t>9@6C6535C</t>
+  </si>
+  <si>
+    <t>Bibha</t>
+  </si>
+  <si>
+    <t>Ankur@123456</t>
   </si>
   <si>
     <t>ankur_ql</t>
   </si>
   <si>
-    <t>14-AUG-2024</t>
-  </si>
-  <si>
-    <t>TC Register Client 2</t>
-  </si>
-  <si>
-    <t>TC Register Client 3</t>
-  </si>
-  <si>
-    <t>TC Register Client 4</t>
-  </si>
-  <si>
-    <t>TC Register Client 5</t>
-  </si>
-  <si>
-    <t>Verify Register Client with Traveller Type VIP</t>
-  </si>
-  <si>
-    <t>Verify Register Client with Traveller Type CIP</t>
-  </si>
-  <si>
-    <t>CIP</t>
-  </si>
-  <si>
-    <t>Verify Register Client with Preferred Name</t>
-  </si>
-  <si>
-    <t>Verify Register Client with Username</t>
-  </si>
-  <si>
-    <t>Verify Register Client with Businnesss Address same as Home Address</t>
-  </si>
-  <si>
-    <t>TC Register Client 6</t>
-  </si>
-  <si>
-    <t>Verify Register Client with Duplicate Entry</t>
-  </si>
-  <si>
-    <t>14-SEP-1998</t>
-  </si>
-  <si>
-    <t>14-SEP-1999</t>
-  </si>
-  <si>
-    <t>14-SEP-2000</t>
-  </si>
-  <si>
-    <t>14-SEP-2001</t>
-  </si>
-  <si>
-    <t>14-NOV-2027</t>
-  </si>
-  <si>
-    <t>14-NOV-2028</t>
-  </si>
-  <si>
-    <t>14-NOV-2025</t>
-  </si>
-  <si>
-    <t>14-NOV-2024</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>eqweqw124</t>
-  </si>
-  <si>
-    <t>eqweqw125</t>
-  </si>
-  <si>
-    <t>eqweqw126</t>
-  </si>
-  <si>
-    <t>eqweqw127</t>
-  </si>
-  <si>
-    <t>15-AUG-2024</t>
-  </si>
-  <si>
-    <t>16-AUG-2024</t>
-  </si>
-  <si>
-    <t>17-AUG-2024</t>
-  </si>
-  <si>
-    <t>18-AUG-2024</t>
-  </si>
-  <si>
-    <t>15-SEP-2026</t>
-  </si>
-  <si>
-    <t>16-SEP-2026</t>
-  </si>
-  <si>
-    <t>17-SEP-2026</t>
-  </si>
-  <si>
-    <t>18-SEP-2026</t>
-  </si>
-  <si>
-    <t>Akasha</t>
-  </si>
-  <si>
-    <t>Akasha123</t>
-  </si>
-  <si>
-    <t>Miss</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Akasha001</t>
-  </si>
-  <si>
-    <t>Akasha001@quadlabs.com</t>
-  </si>
-  <si>
-    <t>TC Register Client 7</t>
-  </si>
-  <si>
-    <t>Verify Register Client with Existing Traveller</t>
-  </si>
-  <si>
-    <t>Bipul</t>
-  </si>
-  <si>
-    <t>Binod</t>
-  </si>
-  <si>
-    <t>Bipasa</t>
-  </si>
-  <si>
-    <t>Bigul</t>
-  </si>
-  <si>
-    <t>Singh</t>
-  </si>
-  <si>
-    <t>Bipina</t>
-  </si>
-  <si>
-    <t>Bipul123</t>
-  </si>
-  <si>
-    <t>Bipina123</t>
-  </si>
-  <si>
-    <t>Binod1234</t>
-  </si>
-  <si>
-    <t>Bipasa123</t>
-  </si>
-  <si>
-    <t>Bigul234</t>
-  </si>
-  <si>
-    <t>Bipul121</t>
-  </si>
-  <si>
-    <t>Bipina121</t>
-  </si>
-  <si>
-    <t>Binod123</t>
-  </si>
-  <si>
-    <t>Bipasa122</t>
-  </si>
-  <si>
-    <t>Bigul23</t>
-  </si>
-  <si>
-    <t>Bipul121@quadlabs.com</t>
-  </si>
-  <si>
-    <t>Bipina121@quadlabs.com</t>
-  </si>
-  <si>
-    <t>Binod123@quadlabs.com</t>
-  </si>
-  <si>
-    <t>Bipasa122@quadlabs.com</t>
-  </si>
-  <si>
-    <t>Bigul23@quadlabs.com</t>
-  </si>
-  <si>
-    <t>TC Register Client 8</t>
-  </si>
-  <si>
-    <t>TC Register Client 9</t>
-  </si>
-  <si>
-    <t>TC Register Client 10</t>
-  </si>
-  <si>
-    <t>Verify Register Client without providing Preferred Name</t>
-  </si>
-  <si>
-    <t>Binoda</t>
-  </si>
-  <si>
-    <t>TC Register Client 11</t>
-  </si>
-  <si>
-    <t>Verify Register Client without providing Date Of Birth</t>
-  </si>
-  <si>
-    <t>Binova</t>
-  </si>
-  <si>
-    <t>Binova123</t>
-  </si>
-  <si>
-    <t>Verify Register Client without providing Username</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Verify Register Client without providing EmaiId</t>
+    <t>Bipul1218</t>
+  </si>
+  <si>
+    <t>Bibhal1202@quadlabs.com</t>
   </si>
 </sst>
 </file>
@@ -832,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +1050,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
@@ -1000,22 +1062,22 @@
         <v>15</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="H2" t="s">
         <v>48</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>55</v>
@@ -1024,10 +1086,10 @@
         <v>16</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>26</v>
@@ -1093,7 +1155,7 @@
         <v>42</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AL2" s="5" t="s">
         <v>57</v>
@@ -1101,10 +1163,10 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
@@ -1116,34 +1178,34 @@
         <v>15</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>26</v>
@@ -1176,13 +1238,13 @@
         <v>8888888011</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AA3" s="3">
         <v>57978561242</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>18</v>
@@ -1197,30 +1259,30 @@
         <v>27</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AH3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AJ3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
@@ -1232,34 +1294,34 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="H4" t="s">
         <v>48</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>26</v>
@@ -1298,7 +1360,7 @@
         <v>57978561243</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>18</v>
@@ -1313,30 +1375,30 @@
         <v>27</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AH4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AJ4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AL4" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -1348,34 +1410,34 @@
         <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="H5" t="s">
         <v>48</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>26</v>
@@ -1408,13 +1470,13 @@
         <v>8888888013</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AA5" s="3">
         <v>57978561244</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>18</v>
@@ -1429,30 +1491,30 @@
         <v>27</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AJ5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AL5" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
@@ -1464,34 +1526,34 @@
         <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>26</v>
@@ -1530,7 +1592,7 @@
         <v>57978561245</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>18</v>
@@ -1545,30 +1607,30 @@
         <v>27</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AJ6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AL6" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -1580,34 +1642,34 @@
         <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>26</v>
@@ -1640,13 +1702,13 @@
         <v>8888888011</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AA7" s="3">
         <v>57978561242</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>18</v>
@@ -1661,30 +1723,30 @@
         <v>27</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AH7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AJ7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AL7" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -1696,22 +1758,22 @@
         <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
         <v>48</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>55</v>
@@ -1720,10 +1782,10 @@
         <v>16</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>26</v>
@@ -1756,7 +1818,7 @@
         <v>8888888010</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AA8" s="3">
         <v>57978561241</v>
@@ -1789,7 +1851,7 @@
         <v>42</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AL8" s="5" t="s">
         <v>57</v>
@@ -1797,10 +1859,10 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -1812,32 +1874,32 @@
         <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="H9" t="s">
         <v>48</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>26</v>
@@ -1876,7 +1938,7 @@
         <v>57978561243</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>18</v>
@@ -1891,30 +1953,30 @@
         <v>27</v>
       </c>
       <c r="AG9" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AH9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AI9" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AJ9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AK9" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AL9" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -1926,32 +1988,32 @@
         <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="H10" t="s">
         <v>48</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>26</v>
@@ -1990,7 +2052,7 @@
         <v>57978561243</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>18</v>
@@ -2005,30 +2067,30 @@
         <v>27</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AH10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AI10" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AJ10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AK10" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AL10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -2040,32 +2102,32 @@
         <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="H11" t="s">
         <v>48</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>26</v>
@@ -2104,7 +2166,7 @@
         <v>57978561243</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AC11" s="3" t="s">
         <v>18</v>
@@ -2119,30 +2181,30 @@
         <v>27</v>
       </c>
       <c r="AG11" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AH11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AI11" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AJ11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AK11" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AL11" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
@@ -2154,29 +2216,29 @@
         <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="H12" t="s">
         <v>48</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="4" t="s">
@@ -2216,7 +2278,7 @@
         <v>57978561243</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AC12" s="3" t="s">
         <v>18</v>
@@ -2231,22 +2293,22 @@
         <v>27</v>
       </c>
       <c r="AG12" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AH12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AJ12" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AK12" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AL12" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2270,8 +2332,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H12" xr:uid="{9A8A8708-97D6-4399-B2C5-7E3F0FF534B6}">
       <formula1>"Mr,Mrs,Miss,Ms,Mstr"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G12" xr:uid="{5D4F7036-C3BE-4E7D-BCEF-6A9CA798E692}">
-      <formula1>"Password@@12,Piyush@1234,Ankur@12345"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G12" xr:uid="{CEAB1108-270D-4950-A350-33E9B56148FF}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2291,11 +2353,908 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE29A7C7-FD4C-46D2-A9E9-ACA8938599B0}">
+  <dimension ref="A1:AL5"/>
+  <sheetViews>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection sqref="A1:AL2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="4">
+        <v>122018</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="4">
+        <v>8888888001</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>8888888010</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>57978561241</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="4">
+        <v>122019</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="4">
+        <v>8888888002</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>8888888011</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>57978561242</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="4">
+        <v>122020</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4" s="4">
+        <v>8888888003</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>8888888012</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>57978561243</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" s="4">
+        <v>122021</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" s="4">
+        <v>8888888004</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>8888888013</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>57978561244</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5" xr:uid="{747A73A3-A33A-4D06-97CC-6E70E5932E0E}">
+      <formula1>"Mr,Mrs,Miss,Ms,Mstr"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH5" xr:uid="{B103F80D-FB0E-48B3-8288-99FFDD695003}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z5" xr:uid="{244A63CE-3CA8-4E63-A212-9CB70A1872A4}">
+      <formula1>"VIP,CIP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{D08622C5-C994-448E-83F1-3B7AD2CCD926}">
+      <formula1>"Piyush_ql,ankur_ql"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{82B887B6-EACA-40E0-818D-55A584CC0A93}">
+      <formula1>"at,qlabs12345,merg123456"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M5" xr:uid="{CC7E53D6-5BBD-4D21-976B-FF72B95B2D06}">
+      <formula1>"Male,Female"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5" xr:uid="{C29D8B72-95D4-476A-9A5E-535249594B98}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{B3A608D2-8A35-4192-859C-C568779B47C6}"/>
+    <hyperlink ref="O3" r:id="rId2" xr:uid="{B29C134D-F128-4489-A172-595DBC4CEDB5}"/>
+    <hyperlink ref="O4" r:id="rId3" xr:uid="{B7D6EAFC-8F4C-43E1-9F00-02E2455AE4E9}"/>
+    <hyperlink ref="O5" r:id="rId4" xr:uid="{A2A06980-BBF4-4599-9462-733549E93A06}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5496C523-15FF-4173-A2B7-BD387B239673}">
+  <dimension ref="A1:AL2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AJ10" sqref="AJ10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="4">
+        <v>122018</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="4">
+        <v>8888888001</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>8888888010</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>57978561241</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{CF7B9B56-471B-4F7E-87CE-0BF08705020D}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C,Ankur@123456"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{A8608704-B958-420E-916D-1A47DC448DC6}">
+      <formula1>"Male,Female"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{6A415925-B25B-4180-9409-95E814E66171}">
+      <formula1>"at,qlabs12345,merg123456"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{D775B35A-3DFC-4C11-BB13-2EA6D2CA8A07}">
+      <formula1>"Piyush_ql,ankur_ql"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{7D2A8B24-7988-435C-9536-FD9EA56F3989}">
+      <formula1>"VIP,CIP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2" xr:uid="{59357D7A-43DD-4122-8FB0-31C77371A306}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{3710C8DA-6FC2-4A9E-8F4E-4617BB6965C1}">
+      <formula1>"Mr,Mrs,Miss,Ms,Mstr"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{F88D1342-6DF7-4E34-9C01-525A200897FB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF828D-600F-47B7-8046-BA5DB503F8BD}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,7 +3383,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
@@ -2436,34 +3395,34 @@
         <v>15</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>26</v>
@@ -2496,7 +3455,7 @@
         <v>8888888010</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AA2" s="3">
         <v>57978561241</v>
@@ -2529,7 +3488,7 @@
         <v>42</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AL2" s="5" t="s">
         <v>57</v>
@@ -2539,9 +3498,6 @@
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{0DC9DF58-2DC0-482C-A257-ECCA6DD8A34F}">
       <formula1>"Male,Female"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{7D9EBCD9-06C8-4A40-9320-17EA260B4D76}">
-      <formula1>"Password@@12,Piyush@1234,Ankur@12345"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{02263A05-6139-4A05-9ADE-3D32E79789A1}">
       <formula1>"Mr,Mrs,Miss,Ms,Mstr"</formula1>
@@ -2558,6 +3514,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{B8026591-3BCC-4CE4-826C-4D84FA28E99A}">
       <formula1>"at,qlabs12345,merg123456"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{07BBD4ED-801E-4471-9D7E-F844DDDEB1C5}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1" xr:uid="{8337D614-4CAB-4C63-93B4-5A3E93463F61}"/>
